--- a/01.MODELO PERSEPOLIS/02.Ejecucion/04.Frente Comercial/Listado contactos CGLU/Contactos CGLU - Gestión Comercial.xlsx
+++ b/01.MODELO PERSEPOLIS/02.Ejecucion/04.Frente Comercial/Listado contactos CGLU/Contactos CGLU - Gestión Comercial.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.200\Smart Cities Local\01.MODELO PERSEPOLIS\02.Ejecucion\04.Frente Comercial\Listado contactos CGLU\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27780" windowHeight="15640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -13,20 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$8:$O$188</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="822">
   <si>
     <t>CONTACTOS CGLU - Gestión Comercial</t>
   </si>
@@ -318,9 +323,6 @@
     <t>Relacionar a Persépolis con ex Alcalde Mockus.</t>
   </si>
   <si>
-    <t>Emilse Moreno</t>
-  </si>
-  <si>
     <t>313-4210415</t>
   </si>
   <si>
@@ -464,6 +466,9 @@
   </si>
   <si>
     <t>320-400-5339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wfmolano@educacion.ed.co </t>
   </si>
   <si>
     <t>Alcaldía La Purificación</t>
@@ -1692,6 +1697,9 @@
     <t>Pendiente envío tarjetas</t>
   </si>
   <si>
+    <t>camilobarreto2001@yahoo.com</t>
+  </si>
+  <si>
     <t>Gobernación Casanare</t>
   </si>
   <si>
@@ -1786,6 +1794,9 @@
   </si>
   <si>
     <t>Harley Liliana Ortiz Salazar</t>
+  </si>
+  <si>
+    <t>alcaldia@bahiasolano-choco.gov.co</t>
   </si>
   <si>
     <t>Alcaldesa Bahía Solano</t>
@@ -2214,6 +2225,9 @@
     <t xml:space="preserve">Gobernación Casanare (Relación con 15 alcaldias) - Necesidad de proyectos </t>
   </si>
   <si>
+    <t>Instituto financiero Casanare (Director)</t>
+  </si>
+  <si>
     <t>Alcaldia la Candelaria Bogotá</t>
   </si>
   <si>
@@ -2391,6 +2405,9 @@
     <t>Dia 2 CGLU 76.jpg</t>
   </si>
   <si>
+    <t>N/A (Foto Stand)</t>
+  </si>
+  <si>
     <t>Dia 2 CGLU 68.jpg</t>
   </si>
   <si>
@@ -2410,6 +2427,9 @@
   </si>
   <si>
     <t>Dia 1 CGLU 88.jpg</t>
+  </si>
+  <si>
+    <t>despachosanvicentedechucuri@santander.gov.co</t>
   </si>
   <si>
     <t>Santander</t>
@@ -2461,6 +2481,12 @@
     <t>Alcalde Funza</t>
   </si>
   <si>
+    <t>Alcaldía San Vicente de Chucurí</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>ajrvic@yahoo.com</t>
   </si>
   <si>
@@ -2503,53 +2529,44 @@
     <t>Verificación correo</t>
   </si>
   <si>
-    <t>Observación</t>
-  </si>
-  <si>
-    <t>Trabaja con la alcaldía mayor de Bogotá en la Secretaría Distrital de Entregar con Social del Distrito / profesional universitario Federación de Unión de Trabajadores del Estado y los Servicios Públicos de Colombia " UTRDEC _ CGT. Es contacto clave para la una Alcaldía del Chocó</t>
-  </si>
-  <si>
-    <t>Enviada (se copió a Ma. José Besson)</t>
-  </si>
-  <si>
-    <t>Dia 2 CGLU 15.jpg</t>
-  </si>
-  <si>
-    <t>N/A (Foto Stand: Dia 1 GCLU 5))</t>
-  </si>
-  <si>
-    <t>camilobarreto2001@yahoo.com / gerencia@ifc.gov.co</t>
-  </si>
-  <si>
-    <t>Gerente Instituto financiero Casanare</t>
-  </si>
-  <si>
-    <t>Enviada (se copió a Ma. José Besson e Ismary Lara)</t>
-  </si>
-  <si>
-    <t>alcaldia@bahiasolano-choco.gov.co; contactenos@bahiasolano-choco.gov.co</t>
-  </si>
-  <si>
-    <t>Enviada (se copió a Juan David Alvarez)</t>
-  </si>
-  <si>
-    <t>Alcalde de San Vicente de Chucurí</t>
-  </si>
-  <si>
-    <t>despachosanvicentedechucuri@santander.gov.co; contactenos@sanvicentedechucuri-santander.gov.co</t>
-  </si>
-  <si>
-    <t>Enviada (se copió a Ma. José Besson y Juan D Alvarez)</t>
-  </si>
-  <si>
-    <t>Wfmolano@educacion.ed.co; contactenos@purificacion-tolima.gov.co; diegomurilloalcalde@gmail.com</t>
+    <t>CORREO DE VOZ</t>
+  </si>
+  <si>
+    <t>Vecino ayudar a la alcaldia - no es potencial</t>
+  </si>
+  <si>
+    <t>ASESOR DEL MUNICIPIO</t>
+  </si>
+  <si>
+    <t>ingearias27@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO ES FUNCIONARIO </t>
+  </si>
+  <si>
+    <t>NO CONTESTA</t>
+  </si>
+  <si>
+    <t>demilcem@yahoo.com.co</t>
+  </si>
+  <si>
+    <t>Emilce Moreno</t>
+  </si>
+  <si>
+    <t>ASESORA ACACIAS (En espera de correo)</t>
+  </si>
+  <si>
+    <t>NO TIENE NÚMERO CONTACTO</t>
+  </si>
+  <si>
+    <t>Le escribi por Whats app no volvio a responder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2661,8 +2678,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0070C0"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2727,18 +2764,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2829,7 +2854,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2847,14 +2872,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3087,23 +3106,41 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="17">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
@@ -3120,12 +3157,6 @@
     <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3445,7 +3476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3453,35 +3484,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B7:P188"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B7:O188"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C130" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D39" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" outlineLevelCol="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="4" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="25.5" style="4" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="11.6640625" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="17.33203125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="6.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.85546875" style="4" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="45" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="31.85546875" style="4" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.28515625" style="5" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="31" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="4" customWidth="1"/>
     <col min="11" max="11" width="18" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="16" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="16" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="69" style="4" customWidth="1"/>
-    <col min="14" max="14" width="22.1640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="37.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="4"/>
+    <col min="14" max="14" width="22.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="37.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="81" t="s">
         <v>0</v>
@@ -3499,24 +3529,24 @@
       <c r="N7" s="81"/>
       <c r="O7" s="81"/>
     </row>
-    <row r="8" spans="2:16" ht="26">
+    <row r="8" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>432</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>2</v>
@@ -3528,10 +3558,10 @@
         <v>7</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>4</v>
@@ -3542,11 +3572,8 @@
       <c r="O8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" s="31" customFormat="1" hidden="1">
+    </row>
+    <row r="9" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>64</v>
       </c>
@@ -3563,10 +3590,10 @@
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="48" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M9" s="21" t="s">
         <v>95</v>
@@ -3576,75 +3603,75 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="2:16" s="31" customFormat="1" hidden="1">
+    <row r="10" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <v>183</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="32"/>
       <c r="I10" s="12" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="12" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="2:16" s="31" customFormat="1" hidden="1">
+    <row r="11" spans="2:15" s="31" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>51</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="24" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="19">
         <v>3183510043</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="18" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="O11" s="18" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="2:16" s="31" customFormat="1" hidden="1">
+    <row r="12" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <v>132</v>
       </c>
@@ -3672,52 +3699,47 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="2:16" s="31" customFormat="1" ht="91">
+    <row r="13" spans="2:15" s="31" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <v>169</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>791</v>
-      </c>
-      <c r="D13" s="83" t="s">
-        <v>806</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>807</v>
+        <v>771</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H13" s="78" t="s">
-        <v>793</v>
-      </c>
-      <c r="I13" s="82" t="s">
-        <v>712</v>
-      </c>
-      <c r="J13" s="82" t="s">
-        <v>711</v>
+        <v>800</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>714</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" s="31" customFormat="1" hidden="1">
+    </row>
+    <row r="14" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <v>98</v>
       </c>
@@ -3727,21 +3749,23 @@
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="82" t="s">
+        <v>811</v>
+      </c>
       <c r="H14" s="19">
         <v>3105379508</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M14" s="21" t="s">
         <v>338</v>
@@ -3751,7 +3775,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="2:16" s="31" customFormat="1" hidden="1">
+    <row r="15" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>138</v>
       </c>
@@ -3781,7 +3805,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="31" customFormat="1" hidden="1">
+    <row r="16" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>1</v>
       </c>
@@ -3802,7 +3826,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="L16" s="27"/>
       <c r="M16" s="12" t="s">
@@ -3815,28 +3839,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="17" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <v>65</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>142</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="29"/>
@@ -3847,7 +3871,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="18" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <v>18</v>
       </c>
@@ -3879,34 +3903,38 @@
         <v>488</v>
       </c>
     </row>
-    <row r="19" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="19" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <v>66</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="F19" s="60" t="s">
+        <v>812</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>815</v>
+      </c>
       <c r="H19" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="J19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="J19" s="18" t="s">
-        <v>113</v>
-      </c>
       <c r="K19" s="17" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L19" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="M19" s="21" t="s">
         <v>687</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>685</v>
       </c>
       <c r="N19" s="18" t="s">
         <v>327</v>
@@ -3915,7 +3943,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="20" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <v>67</v>
       </c>
@@ -3936,7 +3964,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L20" s="38"/>
       <c r="M20" s="18" t="s">
@@ -3947,24 +3975,24 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="21" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <v>144</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="34">
         <v>3103008080</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>24</v>
@@ -3972,14 +4000,14 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <v>176</v>
       </c>
@@ -3989,7 +4017,7 @@
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="39" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="19">
@@ -4009,7 +4037,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="23" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <v>19</v>
       </c>
@@ -4041,7 +4069,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="24" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="24" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <v>99</v>
       </c>
@@ -4062,7 +4090,7 @@
         <v>364</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L24" s="38"/>
       <c r="M24" s="29"/>
@@ -4071,49 +4099,47 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="2:15" s="31" customFormat="1" ht="39">
+    <row r="25" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <v>137</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="D25" s="83" t="s">
-        <v>806</v>
-      </c>
-      <c r="E25" s="84" t="s">
-        <v>808</v>
+        <v>726</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>771</v>
       </c>
       <c r="F25" s="74" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H25" s="79" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="I25" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="J25" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>724</v>
-      </c>
       <c r="K25" s="36" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M25" s="23" t="s">
         <v>338</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <v>68</v>
       </c>
@@ -4136,7 +4162,7 @@
         <v>217</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L26" s="38"/>
       <c r="M26" s="18" t="s">
@@ -4149,7 +4175,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="27" spans="2:15" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <v>100</v>
       </c>
@@ -4157,9 +4183,13 @@
         <v>356</v>
       </c>
       <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="85" t="s">
+        <v>814</v>
+      </c>
+      <c r="G27" s="86" t="s">
+        <v>813</v>
+      </c>
       <c r="H27" s="19">
         <v>3017940140</v>
       </c>
@@ -4170,10 +4200,10 @@
         <v>358</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M27" s="21" t="s">
         <v>338</v>
@@ -4183,7 +4213,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="28" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <v>20</v>
       </c>
@@ -4215,7 +4245,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="29" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="29" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="27">
         <v>21</v>
       </c>
@@ -4247,7 +4277,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="30" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="30" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="27">
         <v>22</v>
       </c>
@@ -4279,7 +4309,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="31" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="31" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="27">
         <v>115</v>
       </c>
@@ -4311,7 +4341,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="32" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="27">
         <v>116</v>
       </c>
@@ -4328,14 +4358,14 @@
         <v>3147937736</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="J32" s="19" t="s">
         <v>241</v>
       </c>
       <c r="K32" s="19"/>
       <c r="L32" s="19" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M32" s="46" t="s">
         <v>242</v>
@@ -4345,7 +4375,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="33" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="27">
         <v>23</v>
       </c>
@@ -4377,7 +4407,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="34" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="34" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27">
         <v>2</v>
       </c>
@@ -4400,7 +4430,7 @@
         <v>24</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="L34" s="27"/>
       <c r="M34" s="12" t="s">
@@ -4413,83 +4443,81 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:15" s="31" customFormat="1" ht="52">
+    <row r="35" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="27">
         <v>168</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="D35" s="83" t="s">
-        <v>811</v>
-      </c>
-      <c r="E35" s="84" t="s">
-        <v>808</v>
+        <v>551</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12" t="s">
+        <v>771</v>
       </c>
       <c r="F35" s="73" t="s">
-        <v>809</v>
+        <v>538</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>810</v>
+        <v>711</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="N35" s="15"/>
       <c r="O35" s="12" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="36" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="36" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="27">
         <v>180</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="34" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>24</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="N36" s="15"/>
       <c r="O36" s="12" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="37" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="37" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="27">
         <v>24</v>
       </c>
@@ -4521,24 +4549,24 @@
         <v>488</v>
       </c>
     </row>
-    <row r="38" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="38" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="27">
         <v>143</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="13" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="34">
         <v>4462397</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>24</v>
@@ -4546,14 +4574,14 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N38" s="15"/>
       <c r="O38" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="27">
         <v>101</v>
       </c>
@@ -4563,7 +4591,9 @@
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="G39" s="82" t="s">
+        <v>816</v>
+      </c>
       <c r="H39" s="19">
         <v>3152482444</v>
       </c>
@@ -4574,20 +4604,20 @@
         <v>337</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L39" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N39" s="29"/>
       <c r="O39" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="40" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27">
         <v>3</v>
       </c>
@@ -4610,7 +4640,7 @@
         <v>64</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L40" s="27"/>
       <c r="M40" s="12" t="s">
@@ -4623,7 +4653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="41" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="27">
         <v>70</v>
       </c>
@@ -4646,7 +4676,7 @@
         <v>212</v>
       </c>
       <c r="K41" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L41" s="38"/>
       <c r="M41" s="18" t="s">
@@ -4659,7 +4689,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="42" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="27">
         <v>25</v>
       </c>
@@ -4691,7 +4721,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="43" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="27">
         <v>60</v>
       </c>
@@ -4714,7 +4744,7 @@
         <v>24</v>
       </c>
       <c r="K43" s="48" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L43" s="48"/>
       <c r="M43" s="20" t="s">
@@ -4725,7 +4755,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="44" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="44" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27">
         <v>26</v>
       </c>
@@ -4757,42 +4787,42 @@
         <v>488</v>
       </c>
     </row>
-    <row r="45" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="45" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="27">
         <v>153</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="13" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="34">
         <v>3114457302</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N45" s="15"/>
       <c r="O45" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27">
         <v>71</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
@@ -4802,24 +4832,24 @@
       <c r="G46" s="39"/>
       <c r="H46" s="40"/>
       <c r="I46" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J46" s="18" t="s">
         <v>24</v>
       </c>
       <c r="K46" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L46" s="38"/>
       <c r="M46" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N46" s="29"/>
       <c r="O46" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="47" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="27">
         <v>27</v>
       </c>
@@ -4851,7 +4881,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="48" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="48" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="27">
         <v>72</v>
       </c>
@@ -4874,7 +4904,7 @@
         <v>199</v>
       </c>
       <c r="K48" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L48" s="38"/>
       <c r="M48" s="18" t="s">
@@ -4885,43 +4915,43 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="2:15" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+    <row r="49" spans="2:15" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="27">
         <v>52</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="26" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="20">
         <v>3002010192</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L49" s="17"/>
       <c r="M49" s="18" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="O49" s="17" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="50" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="27">
         <v>117</v>
       </c>
@@ -4951,37 +4981,37 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="51" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="27">
         <v>163</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="13" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="34">
         <v>3115395807</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
       <c r="M51" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="27">
         <v>130</v>
       </c>
@@ -5011,77 +5041,77 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="53" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="27">
         <v>178</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="13" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="34" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="J53" s="12" t="s">
         <v>24</v>
       </c>
       <c r="K53" s="12"/>
       <c r="L53" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M53" s="49" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="12" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="54" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="54" spans="2:15" s="31" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="27">
         <v>50</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="24" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G54" s="24"/>
       <c r="H54" s="19">
         <v>34618637359</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L54" s="18"/>
       <c r="M54" s="18" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="O54" s="18" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="55" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="55" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="27">
         <v>139</v>
       </c>
@@ -5113,37 +5143,37 @@
         <v>265</v>
       </c>
     </row>
-    <row r="56" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="56" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="27">
         <v>146</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D56" s="52"/>
       <c r="E56" s="52"/>
       <c r="F56" s="52" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G56" s="52"/>
       <c r="H56" s="34">
         <v>3108669202</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
       <c r="M56" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N56" s="15"/>
       <c r="O56" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="27">
         <v>4</v>
       </c>
@@ -5166,10 +5196,10 @@
         <v>24</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L57" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M57" s="23" t="s">
         <v>48</v>
@@ -5181,7 +5211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="58" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="27">
         <v>28</v>
       </c>
@@ -5213,12 +5243,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="59" spans="2:15" s="31" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="59" spans="2:15" s="31" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="27">
         <v>73</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D59" s="70"/>
       <c r="E59" s="70"/>
@@ -5228,24 +5258,24 @@
       <c r="G59" s="53"/>
       <c r="H59" s="40"/>
       <c r="I59" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J59" s="18" t="s">
         <v>24</v>
       </c>
       <c r="K59" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L59" s="38"/>
       <c r="M59" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N59" s="29"/>
       <c r="O59" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="2:15" s="31" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="60" spans="2:15" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="27">
         <v>74</v>
       </c>
@@ -5257,7 +5287,9 @@
       <c r="F60" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="G60" s="53"/>
+      <c r="G60" s="82" t="s">
+        <v>816</v>
+      </c>
       <c r="H60" s="19" t="s">
         <v>202</v>
       </c>
@@ -5268,10 +5300,10 @@
         <v>24</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L60" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M60" s="21" t="s">
         <v>322</v>
@@ -5281,74 +5313,78 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="2:15" s="31" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+    <row r="61" spans="2:15" s="31" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="27">
         <v>75</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D61" s="70"/>
       <c r="E61" s="70"/>
       <c r="F61" s="55"/>
       <c r="G61" s="55"/>
       <c r="H61" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I61" s="29"/>
       <c r="J61" s="29"/>
       <c r="K61" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L61" s="30"/>
       <c r="M61" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N61" s="29"/>
       <c r="O61" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="62" spans="2:15" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B62" s="27">
         <v>76</v>
       </c>
       <c r="C62" s="56" t="s">
-        <v>96</v>
+        <v>818</v>
       </c>
       <c r="D62" s="56"/>
       <c r="E62" s="56"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
+      <c r="F62" s="85" t="s">
+        <v>817</v>
+      </c>
+      <c r="G62" s="86" t="s">
+        <v>819</v>
+      </c>
       <c r="H62" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I62" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="I62" s="18" t="s">
+      <c r="J62" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="J62" s="18" t="s">
+      <c r="K62" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="L62" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="M62" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="K62" s="17" t="s">
-        <v>733</v>
-      </c>
-      <c r="L62" s="38" t="s">
-        <v>687</v>
-      </c>
-      <c r="M62" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="N62" s="29"/>
       <c r="O62" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="63" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="63" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="27">
         <v>77</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
@@ -5356,22 +5392,22 @@
       <c r="G63" s="28"/>
       <c r="H63" s="40"/>
       <c r="I63" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="17" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L63" s="30"/>
       <c r="M63" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N63" s="29"/>
       <c r="O63" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="64" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="27">
         <v>78</v>
       </c>
@@ -5392,7 +5428,7 @@
         <v>24</v>
       </c>
       <c r="K64" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L64" s="38"/>
       <c r="M64" s="18" t="s">
@@ -5405,7 +5441,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="65" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="65" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="27">
         <v>133</v>
       </c>
@@ -5435,7 +5471,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="66" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="27">
         <v>29</v>
       </c>
@@ -5467,7 +5503,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="67" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="67" spans="2:15" s="31" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B67" s="27">
         <v>102</v>
       </c>
@@ -5480,7 +5516,7 @@
         <v>289</v>
       </c>
       <c r="G67" s="39"/>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="87" t="s">
         <v>435</v>
       </c>
       <c r="I67" s="19" t="s">
@@ -5490,10 +5526,10 @@
         <v>291</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L67" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M67" s="21" t="s">
         <v>338</v>
@@ -5503,43 +5539,43 @@
         <v>292</v>
       </c>
     </row>
-    <row r="68" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="68" spans="2:15" s="31" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="27">
         <v>49</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
       <c r="F68" s="24" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G68" s="24"/>
       <c r="H68" s="19">
         <v>3232219465</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="L68" s="18"/>
       <c r="M68" s="18" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="O68" s="18" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="69" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="27">
         <v>5</v>
       </c>
@@ -5560,7 +5596,7 @@
       </c>
       <c r="J69" s="15"/>
       <c r="K69" s="12" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="L69" s="58"/>
       <c r="M69" s="12" t="s">
@@ -5573,39 +5609,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="70" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="27">
         <v>145</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="13" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G70" s="13"/>
       <c r="H70" s="34">
         <v>3104413127</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
       <c r="M70" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N70" s="15"/>
       <c r="O70" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="27">
         <v>79</v>
       </c>
@@ -5628,18 +5664,18 @@
         <v>199</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L71" s="38"/>
       <c r="M71" s="18" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="N71" s="29"/>
       <c r="O71" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="72" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="27">
         <v>118</v>
       </c>
@@ -5667,7 +5703,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="73" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="27">
         <v>80</v>
       </c>
@@ -5690,18 +5726,18 @@
         <v>24</v>
       </c>
       <c r="K73" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L73" s="38"/>
       <c r="M73" s="18" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="N73" s="29"/>
       <c r="O73" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="74" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="74" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="27">
         <v>119</v>
       </c>
@@ -5716,7 +5752,7 @@
       <c r="G74" s="39"/>
       <c r="H74" s="40"/>
       <c r="I74" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J74" s="19" t="s">
         <v>248</v>
@@ -5731,7 +5767,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="75" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="75" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="27">
         <v>81</v>
       </c>
@@ -5754,7 +5790,7 @@
         <v>24</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L75" s="38"/>
       <c r="M75" s="18" t="s">
@@ -5767,7 +5803,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="76" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="27">
         <v>82</v>
       </c>
@@ -5790,18 +5826,18 @@
         <v>24</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L76" s="38"/>
       <c r="M76" s="18" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="N76" s="29"/>
       <c r="O76" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="77" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="77" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="27">
         <v>103</v>
       </c>
@@ -5821,13 +5857,13 @@
         <v>334</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L77" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M77" s="21" t="s">
         <v>338</v>
@@ -5837,7 +5873,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="78" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="78" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="27">
         <v>6</v>
       </c>
@@ -5860,10 +5896,10 @@
         <v>74</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="L78" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M78" s="23" t="s">
         <v>75</v>
@@ -5875,39 +5911,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="79" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="27">
         <v>83</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
       <c r="F79" s="28"/>
       <c r="G79" s="28"/>
       <c r="H79" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="J79" s="18" t="s">
         <v>24</v>
       </c>
       <c r="K79" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L79" s="38"/>
       <c r="M79" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N79" s="29"/>
       <c r="O79" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="80" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="27">
         <v>120</v>
       </c>
@@ -5939,7 +5975,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="81" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="27">
         <v>30</v>
       </c>
@@ -5969,7 +6005,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="82" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="82" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="27">
         <v>121</v>
       </c>
@@ -5995,7 +6031,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="83" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="27">
         <v>149</v>
       </c>
@@ -6005,14 +6041,14 @@
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="34">
         <v>3002937126</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="J83" s="12" t="s">
         <v>24</v>
@@ -6020,14 +6056,14 @@
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N83" s="15"/>
       <c r="O83" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="27">
         <v>127</v>
       </c>
@@ -6057,87 +6093,87 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="2:15" s="31" customFormat="1" ht="39">
+    <row r="85" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="27">
         <v>57</v>
       </c>
       <c r="C85" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="F85" s="74" t="s">
+        <v>571</v>
+      </c>
+      <c r="G85" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="H85" s="79" t="s">
+        <v>803</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="K85" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="L85" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="M85" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="N85" s="12" t="s">
         <v>569</v>
-      </c>
-      <c r="D85" s="83" t="s">
-        <v>813</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>770</v>
-      </c>
-      <c r="F85" s="74" t="s">
-        <v>812</v>
-      </c>
-      <c r="G85" s="27" t="s">
-        <v>792</v>
-      </c>
-      <c r="H85" s="79" t="s">
-        <v>796</v>
-      </c>
-      <c r="I85" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="J85" s="12" t="s">
-        <v>769</v>
-      </c>
-      <c r="K85" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="L85" s="27" t="s">
-        <v>687</v>
-      </c>
-      <c r="M85" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="N85" s="12" t="s">
-        <v>568</v>
       </c>
       <c r="O85" s="12" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="86" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="86" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="27">
         <v>61</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G86" s="47"/>
       <c r="H86" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I86" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="I86" s="17" t="s">
+      <c r="J86" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="J86" s="17" t="s">
-        <v>124</v>
-      </c>
       <c r="K86" s="17" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L86" s="48" t="s">
+        <v>689</v>
+      </c>
+      <c r="M86" s="21" t="s">
         <v>687</v>
-      </c>
-      <c r="M86" s="21" t="s">
-        <v>685</v>
       </c>
       <c r="N86" s="29"/>
       <c r="O86" s="20" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="87" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="87" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="27">
         <v>122</v>
       </c>
@@ -6161,7 +6197,7 @@
       </c>
       <c r="K87" s="19"/>
       <c r="L87" s="19" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M87" s="46" t="s">
         <v>242</v>
@@ -6171,7 +6207,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="88" spans="2:15" s="31" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B88" s="27">
         <v>104</v>
       </c>
@@ -6180,8 +6216,10 @@
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="92" t="s">
+        <v>821</v>
+      </c>
       <c r="H88" s="19">
         <v>3188136148</v>
       </c>
@@ -6189,13 +6227,13 @@
         <v>360</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L88" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M88" s="21" t="s">
         <v>338</v>
@@ -6205,27 +6243,27 @@
         <v>292</v>
       </c>
     </row>
-    <row r="89" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="89" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="27">
         <v>179</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="13" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="J89" s="12" t="s">
         <v>592</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="J89" s="12" t="s">
-        <v>590</v>
       </c>
       <c r="K89" s="12"/>
       <c r="L89" s="27"/>
@@ -6235,7 +6273,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="90" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="90" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="27">
         <v>84</v>
       </c>
@@ -6258,7 +6296,7 @@
         <v>183</v>
       </c>
       <c r="K90" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L90" s="38"/>
       <c r="M90" s="18" t="s">
@@ -6269,7 +6307,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="91" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="27">
         <v>31</v>
       </c>
@@ -6301,7 +6339,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="92" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="92" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="27">
         <v>114</v>
       </c>
@@ -6329,17 +6367,17 @@
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="93" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="27">
         <v>155</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="13" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G93" s="13"/>
       <c r="H93" s="34">
@@ -6350,14 +6388,14 @@
       <c r="K93" s="15"/>
       <c r="L93" s="15"/>
       <c r="M93" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N93" s="15"/>
       <c r="O93" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="94" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="27">
         <v>32</v>
       </c>
@@ -6389,12 +6427,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="95" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="95" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="27">
         <v>7</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
@@ -6412,10 +6450,10 @@
         <v>28</v>
       </c>
       <c r="K95" s="27" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L95" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M95" s="23" t="s">
         <v>29</v>
@@ -6427,24 +6465,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="96" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="27">
         <v>177</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="13" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G96" s="13"/>
       <c r="H96" s="34" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="J96" s="12" t="s">
         <v>24</v>
@@ -6457,57 +6495,55 @@
         <v>526</v>
       </c>
     </row>
-    <row r="97" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="97" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="27">
         <v>166</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G97" s="12"/>
       <c r="H97" s="34">
         <v>3104911120</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
       <c r="L97" s="15"/>
       <c r="M97" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N97" s="15"/>
       <c r="O97" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="98" spans="2:15" s="31" customFormat="1" ht="39">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" s="31" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="27">
         <v>8</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>779</v>
-      </c>
-      <c r="D98" s="83" t="s">
-        <v>806</v>
-      </c>
-      <c r="E98" s="84" t="s">
-        <v>808</v>
+        <v>784</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12" t="s">
+        <v>771</v>
       </c>
       <c r="F98" s="72" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="G98" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H98" s="79" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="I98" s="12" t="s">
         <v>58</v>
@@ -6516,10 +6552,10 @@
         <v>59</v>
       </c>
       <c r="K98" s="36" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L98" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M98" s="23" t="s">
         <v>60</v>
@@ -6531,105 +6567,105 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="99" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="27">
         <v>159</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="13" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G99" s="13"/>
       <c r="H99" s="34">
         <v>3123770396</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
       <c r="L99" s="15"/>
       <c r="M99" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N99" s="15"/>
       <c r="O99" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="100" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="27">
         <v>58</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="13" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G100" s="13"/>
       <c r="H100" s="34">
         <v>3115170335</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="J100" s="12" t="s">
         <v>24</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="L100" s="12"/>
       <c r="M100" s="12" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="N100" s="12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O100" s="12" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="101" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="101" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="27">
         <v>154</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="13" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G101" s="13"/>
       <c r="H101" s="34">
         <v>3143347049</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
       <c r="M101" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N101" s="15"/>
       <c r="O101" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="102" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="27">
         <v>33</v>
       </c>
@@ -6661,7 +6697,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="103" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="103" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="27">
         <v>85</v>
       </c>
@@ -6684,7 +6720,7 @@
         <v>24</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L103" s="38"/>
       <c r="M103" s="18" t="s">
@@ -6695,7 +6731,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="104" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="104" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="27">
         <v>86</v>
       </c>
@@ -6718,7 +6754,7 @@
         <v>24</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L104" s="38"/>
       <c r="M104" s="18" t="s">
@@ -6729,7 +6765,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="105" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="105" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="27">
         <v>87</v>
       </c>
@@ -6750,7 +6786,7 @@
       </c>
       <c r="J105" s="29"/>
       <c r="K105" s="18" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L105" s="30"/>
       <c r="M105" s="18" t="s">
@@ -6761,7 +6797,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="106" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="106" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="27">
         <v>105</v>
       </c>
@@ -6779,53 +6815,53 @@
         <v>343</v>
       </c>
       <c r="J106" s="18" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="K106" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L106" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M106" s="21" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N106" s="29"/>
       <c r="O106" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="107" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="107" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="27">
         <v>157</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="13" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G107" s="13"/>
       <c r="H107" s="34">
         <v>3158445075</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
       <c r="L107" s="15"/>
       <c r="M107" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N107" s="15"/>
       <c r="O107" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="108" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="27">
         <v>9</v>
       </c>
@@ -6848,7 +6884,7 @@
         <v>38</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L108" s="27"/>
       <c r="M108" s="12" t="s">
@@ -6861,7 +6897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="109" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="27">
         <v>123</v>
       </c>
@@ -6893,7 +6929,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="110" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="110" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="27">
         <v>34</v>
       </c>
@@ -6925,27 +6961,25 @@
         <v>488</v>
       </c>
     </row>
-    <row r="111" spans="2:15" s="31" customFormat="1" ht="52">
+    <row r="111" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="27">
         <v>10</v>
       </c>
       <c r="C111" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D111" s="83" t="s">
-        <v>811</v>
-      </c>
+      <c r="D111" s="12"/>
       <c r="E111" s="12" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="F111" s="74" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="G111" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H111" s="79" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="I111" s="12" t="s">
         <v>84</v>
@@ -6954,10 +6988,10 @@
         <v>85</v>
       </c>
       <c r="K111" s="36" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L111" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M111" s="23" t="s">
         <v>86</v>
@@ -6969,7 +7003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="112" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="27">
         <v>106</v>
       </c>
@@ -6990,20 +7024,20 @@
         <v>346</v>
       </c>
       <c r="K112" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L112" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M112" s="21" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="N112" s="29"/>
       <c r="O112" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="113" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="113" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="27">
         <v>35</v>
       </c>
@@ -7035,12 +7069,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="114" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="114" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="27">
         <v>107</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="18"/>
@@ -7050,16 +7084,16 @@
         <v>3102083631</v>
       </c>
       <c r="I114" s="60" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="J114" s="18" t="s">
         <v>339</v>
       </c>
       <c r="K114" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L114" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M114" s="21" t="s">
         <v>338</v>
@@ -7069,7 +7103,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="115" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="115" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="27">
         <v>36</v>
       </c>
@@ -7101,22 +7135,22 @@
         <v>488</v>
       </c>
     </row>
-    <row r="116" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="116" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="27">
         <v>182</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="13" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G116" s="13"/>
       <c r="H116" s="32"/>
       <c r="I116" s="12" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="J116" s="12" t="s">
         <v>24</v>
@@ -7129,37 +7163,37 @@
         <v>526</v>
       </c>
     </row>
-    <row r="117" spans="2:15" s="31" customFormat="1" ht="24">
+    <row r="117" spans="2:15" s="31" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" s="27">
         <v>184</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>766</v>
-      </c>
-      <c r="E117" s="85" t="s">
-        <v>808</v>
+        <v>769</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>769</v>
       </c>
       <c r="F117" s="75" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="G117" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H117" s="80"/>
       <c r="I117" s="22" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="J117" s="22" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="K117" s="68" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L117" s="23" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="M117" s="22"/>
       <c r="N117" s="22" t="s">
@@ -7167,84 +7201,82 @@
       </c>
       <c r="O117" s="12"/>
     </row>
-    <row r="118" spans="2:15" s="31" customFormat="1" ht="52">
+    <row r="118" spans="2:15" s="31" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="27">
         <v>134</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>785</v>
-      </c>
-      <c r="D118" s="83" t="s">
-        <v>811</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="D118" s="12"/>
       <c r="E118" s="12" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="F118" s="72" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="G118" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H118" s="79" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="J118" s="12" t="s">
         <v>270</v>
       </c>
       <c r="K118" s="36" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L118" s="27" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="M118" s="23" t="s">
         <v>242</v>
       </c>
       <c r="N118" s="12"/>
       <c r="O118" s="12" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="119" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="27">
         <v>151</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="13" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G119" s="13"/>
       <c r="H119" s="34">
         <v>3167441051</v>
       </c>
       <c r="I119" s="12" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
       <c r="L119" s="15"/>
       <c r="M119" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N119" s="15"/>
       <c r="O119" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="120" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="27">
         <v>11</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
@@ -7262,10 +7294,10 @@
         <v>18</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L120" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M120" s="23" t="s">
         <v>19</v>
@@ -7277,37 +7309,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="121" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="27">
         <v>88</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D121" s="18"/>
       <c r="E121" s="18"/>
       <c r="F121" s="28"/>
       <c r="G121" s="28"/>
       <c r="H121" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I121" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="I121" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="J121" s="29"/>
       <c r="K121" s="17" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L121" s="30"/>
       <c r="M121" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N121" s="29"/>
       <c r="O121" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="122" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="122" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="27">
         <v>37</v>
       </c>
@@ -7339,7 +7371,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="123" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="123" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="27">
         <v>89</v>
       </c>
@@ -7362,7 +7394,7 @@
         <v>24</v>
       </c>
       <c r="K123" s="18" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L123" s="38"/>
       <c r="M123" s="18" t="s">
@@ -7373,12 +7405,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="124" spans="2:15" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+    <row r="124" spans="2:15" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="27">
         <v>53</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="18"/>
@@ -7390,62 +7422,62 @@
         <v>3124276325</v>
       </c>
       <c r="I124" s="17" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="J124" s="17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K124" s="17" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L124" s="17"/>
       <c r="M124" s="17" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="N124" s="17" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="O124" s="17" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="125" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="125" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="27">
         <v>62</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="17"/>
       <c r="F125" s="61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G125" s="61"/>
       <c r="H125" s="20">
         <v>3175485998</v>
       </c>
       <c r="I125" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J125" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="J125" s="17" t="s">
-        <v>132</v>
-      </c>
       <c r="K125" s="17" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L125" s="48" t="s">
+        <v>689</v>
+      </c>
+      <c r="M125" s="21" t="s">
         <v>687</v>
-      </c>
-      <c r="M125" s="21" t="s">
-        <v>685</v>
       </c>
       <c r="N125" s="29"/>
       <c r="O125" s="20" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="126" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="126" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="27">
         <v>12</v>
       </c>
@@ -7468,10 +7500,10 @@
         <v>12</v>
       </c>
       <c r="K126" s="27" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L126" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M126" s="23" t="s">
         <v>13</v>
@@ -7483,12 +7515,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="127" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="27">
         <v>170</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
@@ -7497,53 +7529,55 @@
       <c r="H127" s="12"/>
       <c r="I127" s="15"/>
       <c r="J127" s="12" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K127" s="12"/>
       <c r="L127" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M127" s="23" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N127" s="15"/>
       <c r="O127" s="12" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="128" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="128" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="27">
         <v>136</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="34"/>
+      <c r="F128" s="89"/>
+      <c r="G128" s="91" t="s">
+        <v>820</v>
+      </c>
+      <c r="H128" s="90"/>
       <c r="I128" s="12" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="J128" s="12" t="s">
         <v>233</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L128" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M128" s="23" t="s">
         <v>338</v>
       </c>
       <c r="N128" s="12"/>
       <c r="O128" s="12" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="129" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="27">
         <v>108</v>
       </c>
@@ -7553,7 +7587,9 @@
       <c r="D129" s="18"/>
       <c r="E129" s="18"/>
       <c r="F129" s="45"/>
-      <c r="G129" s="45"/>
+      <c r="G129" s="82" t="s">
+        <v>816</v>
+      </c>
       <c r="H129" s="19">
         <v>3218523940</v>
       </c>
@@ -7564,10 +7600,10 @@
         <v>351</v>
       </c>
       <c r="K129" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L129" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M129" s="21" t="s">
         <v>338</v>
@@ -7577,34 +7613,34 @@
         <v>292</v>
       </c>
     </row>
-    <row r="130" spans="2:15" s="31" customFormat="1">
+    <row r="130" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="27">
         <v>185</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>766</v>
-      </c>
-      <c r="E130" s="85" t="s">
-        <v>808</v>
+        <v>769</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>769</v>
       </c>
       <c r="F130" s="76" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="G130" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H130" s="80"/>
       <c r="I130" s="22" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="J130" s="22" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="K130" s="68" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L130" s="23" t="s">
         <v>242</v>
@@ -7615,7 +7651,7 @@
       </c>
       <c r="O130" s="12"/>
     </row>
-    <row r="131" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="131" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="27">
         <v>47</v>
       </c>
@@ -7636,20 +7672,20 @@
       </c>
       <c r="J131" s="40"/>
       <c r="K131" s="48" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L131" s="40"/>
       <c r="M131" s="17" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="N131" s="17" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="O131" s="19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="132" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="132" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="27">
         <v>90</v>
       </c>
@@ -7672,7 +7708,7 @@
         <v>162</v>
       </c>
       <c r="K132" s="18" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L132" s="38"/>
       <c r="M132" s="18" t="s">
@@ -7683,104 +7719,104 @@
         <v>329</v>
       </c>
     </row>
-    <row r="133" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="133" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="27">
         <v>175</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G133" s="13"/>
       <c r="H133" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K133" s="12"/>
       <c r="L133" s="12"/>
       <c r="M133" s="12" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="N133" s="15"/>
       <c r="O133" s="12" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="134" spans="2:15" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+    <row r="134" spans="2:15" s="31" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="27">
         <v>54</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="D134" s="18"/>
       <c r="E134" s="18"/>
       <c r="F134" s="26" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G134" s="26"/>
       <c r="H134" s="20">
         <v>3108159014</v>
       </c>
       <c r="I134" s="17" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K134" s="48" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L134" s="17" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M134" s="21" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="N134" s="17" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="O134" s="17" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="135" spans="2:15" s="31" customFormat="1" ht="36">
+    <row r="135" spans="2:15" s="31" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" s="27">
         <v>186</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>766</v>
-      </c>
-      <c r="E135" s="85" t="s">
-        <v>808</v>
+        <v>769</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>769</v>
       </c>
       <c r="F135" s="75" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="G135" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H135" s="80"/>
       <c r="I135" s="22" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="J135" s="22" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="K135" s="68" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L135" s="23" t="s">
         <v>242</v>
@@ -7791,7 +7827,7 @@
       </c>
       <c r="O135" s="12"/>
     </row>
-    <row r="136" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="136" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="27">
         <v>38</v>
       </c>
@@ -7823,7 +7859,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="137" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="137" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="27">
         <v>13</v>
       </c>
@@ -7846,10 +7882,10 @@
         <v>24</v>
       </c>
       <c r="K137" s="27" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L137" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M137" s="23" t="s">
         <v>70</v>
@@ -7861,7 +7897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="138" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="27">
         <v>39</v>
       </c>
@@ -7893,7 +7929,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="139" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="139" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="27">
         <v>40</v>
       </c>
@@ -7925,7 +7961,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="140" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="140" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="27">
         <v>128</v>
       </c>
@@ -7953,7 +7989,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="141" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="27">
         <v>91</v>
       </c>
@@ -7974,7 +8010,7 @@
       </c>
       <c r="J141" s="29"/>
       <c r="K141" s="17" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L141" s="30"/>
       <c r="M141" s="18" t="s">
@@ -7985,37 +8021,37 @@
         <v>329</v>
       </c>
     </row>
-    <row r="142" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="142" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="27">
         <v>148</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
       <c r="F142" s="13" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G142" s="13"/>
       <c r="H142" s="34">
         <v>3007476712</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="J142" s="15"/>
       <c r="K142" s="15"/>
       <c r="L142" s="15"/>
       <c r="M142" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N142" s="15"/>
       <c r="O142" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="143" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="27">
         <v>109</v>
       </c>
@@ -8032,16 +8068,16 @@
         <v>3126706334</v>
       </c>
       <c r="I143" s="18" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="J143" s="18" t="s">
         <v>341</v>
       </c>
       <c r="K143" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L143" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M143" s="21" t="s">
         <v>338</v>
@@ -8051,72 +8087,72 @@
         <v>292</v>
       </c>
     </row>
-    <row r="144" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="144" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="27">
         <v>165</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
       <c r="F144" s="13" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G144" s="13"/>
       <c r="H144" s="34">
         <v>3112527189</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="J144" s="15"/>
       <c r="K144" s="15"/>
       <c r="L144" s="15"/>
       <c r="M144" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N144" s="15"/>
       <c r="O144" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="145" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="27">
         <v>164</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
       <c r="F145" s="12" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G145" s="12"/>
       <c r="H145" s="34">
         <v>3103762672</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="J145" s="15"/>
       <c r="K145" s="15"/>
       <c r="L145" s="15"/>
       <c r="M145" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N145" s="15"/>
       <c r="O145" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="146" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="27">
         <v>167</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
@@ -8128,20 +8164,20 @@
         <v>3105632535</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="J146" s="15"/>
       <c r="K146" s="15"/>
       <c r="L146" s="15"/>
       <c r="M146" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N146" s="15"/>
       <c r="O146" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="147" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="27">
         <v>124</v>
       </c>
@@ -8173,7 +8209,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="148" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="148" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="27">
         <v>14</v>
       </c>
@@ -8196,7 +8232,7 @@
         <v>24</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="L148" s="27"/>
       <c r="M148" s="12" t="s">
@@ -8209,41 +8245,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="149" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="27">
         <v>174</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G149" s="13"/>
       <c r="H149" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="K149" s="12"/>
       <c r="L149" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M149" s="23" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N149" s="15"/>
       <c r="O149" s="12" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="150" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="150" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="27">
         <v>15</v>
       </c>
@@ -8255,7 +8291,9 @@
       <c r="F150" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G150" s="39"/>
+      <c r="G150" s="82" t="s">
+        <v>820</v>
+      </c>
       <c r="H150" s="32"/>
       <c r="I150" s="12" t="s">
         <v>51</v>
@@ -8264,7 +8302,7 @@
         <v>24</v>
       </c>
       <c r="K150" s="12" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L150" s="27"/>
       <c r="M150" s="12" t="s">
@@ -8277,39 +8315,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="2:15" s="31" customFormat="1" ht="52">
+    <row r="151" spans="2:15" s="31" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="27">
         <v>16</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D151" s="83" t="s">
-        <v>811</v>
-      </c>
+      <c r="D151" s="12"/>
       <c r="E151" s="12" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F151" s="77" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="G151" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H151" s="79" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="J151" s="12" t="s">
         <v>77</v>
       </c>
       <c r="K151" s="36" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L151" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M151" s="23" t="s">
         <v>78</v>
@@ -8321,7 +8357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="152" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="27">
         <v>129</v>
       </c>
@@ -8351,7 +8387,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="153" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="153" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="27">
         <v>92</v>
       </c>
@@ -8374,7 +8410,7 @@
         <v>157</v>
       </c>
       <c r="K153" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L153" s="38"/>
       <c r="M153" s="18" t="s">
@@ -8385,24 +8421,24 @@
         <v>329</v>
       </c>
     </row>
-    <row r="154" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="154" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="27">
         <v>181</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
       <c r="F154" s="13" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G154" s="13"/>
       <c r="H154" s="34" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="J154" s="12" t="s">
         <v>24</v>
@@ -8415,7 +8451,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="155" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="155" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="27">
         <v>140</v>
       </c>
@@ -8445,7 +8481,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="156" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="156" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="27">
         <v>93</v>
       </c>
@@ -8468,10 +8504,10 @@
         <v>366</v>
       </c>
       <c r="K156" s="17" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L156" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M156" s="21" t="s">
         <v>148</v>
@@ -8483,7 +8519,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="157" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="157" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="27">
         <v>131</v>
       </c>
@@ -8513,41 +8549,41 @@
         <v>235</v>
       </c>
     </row>
-    <row r="158" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="158" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="27">
         <v>63</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="17"/>
       <c r="F158" s="61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G158" s="61"/>
       <c r="H158" s="20">
         <v>3124294542</v>
       </c>
       <c r="I158" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J158" s="17" t="s">
         <v>24</v>
       </c>
       <c r="K158" s="48" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L158" s="48"/>
       <c r="M158" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N158" s="29"/>
       <c r="O158" s="20" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="159" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="159" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="27">
         <v>141</v>
       </c>
@@ -8569,7 +8605,7 @@
       </c>
       <c r="K159" s="20"/>
       <c r="L159" s="48" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M159" s="46" t="s">
         <v>242</v>
@@ -8579,12 +8615,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="160" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="160" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="27">
         <v>94</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="18"/>
@@ -8594,22 +8630,22 @@
       <c r="G160" s="39"/>
       <c r="H160" s="40"/>
       <c r="I160" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J160" s="29"/>
       <c r="K160" s="48" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L160" s="30"/>
       <c r="M160" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N160" s="29"/>
       <c r="O160" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="161" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="161" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="27">
         <v>41</v>
       </c>
@@ -8641,69 +8677,67 @@
         <v>488</v>
       </c>
     </row>
-    <row r="162" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="162" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="27">
         <v>156</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
       <c r="F162" s="13" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G162" s="13"/>
       <c r="H162" s="34">
         <v>3006006910</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="J162" s="15"/>
       <c r="K162" s="15"/>
       <c r="L162" s="15"/>
       <c r="M162" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N162" s="15"/>
       <c r="O162" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="163" spans="2:15" s="31" customFormat="1" ht="52">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="163" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="27">
         <v>110</v>
       </c>
       <c r="C163" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="D163" s="83" t="s">
-        <v>811</v>
-      </c>
-      <c r="E163" s="85" t="s">
+      <c r="D163" s="18"/>
+      <c r="E163" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="F163" s="73" t="s">
+        <v>779</v>
+      </c>
+      <c r="G163" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="H163" s="20" t="s">
         <v>808</v>
       </c>
-      <c r="F163" s="73" t="s">
-        <v>815</v>
-      </c>
-      <c r="G163" s="27" t="s">
-        <v>792</v>
-      </c>
-      <c r="H163" s="20" t="s">
-        <v>801</v>
-      </c>
       <c r="I163" s="18" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="K163" s="48" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L163" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M163" s="21" t="s">
         <v>338</v>
@@ -8713,27 +8747,27 @@
         <v>292</v>
       </c>
     </row>
-    <row r="164" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="164" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="27">
         <v>172</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
       <c r="F164" s="13" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G164" s="13"/>
       <c r="H164" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="J164" s="35" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K164" s="35"/>
       <c r="L164" s="35"/>
@@ -8743,7 +8777,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="165" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="165" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="27">
         <v>142</v>
       </c>
@@ -8775,34 +8809,34 @@
         <v>265</v>
       </c>
     </row>
-    <row r="166" spans="2:15" s="31" customFormat="1">
+    <row r="166" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" s="27">
         <v>187</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>766</v>
-      </c>
-      <c r="E166" s="85" t="s">
-        <v>808</v>
+        <v>769</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>769</v>
       </c>
       <c r="F166" s="76" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H166" s="80"/>
       <c r="I166" s="22" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="J166" s="22" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="K166" s="68" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L166" s="23" t="s">
         <v>242</v>
@@ -8813,7 +8847,7 @@
       </c>
       <c r="O166" s="12"/>
     </row>
-    <row r="167" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="167" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="27">
         <v>17</v>
       </c>
@@ -8836,10 +8870,10 @@
         <v>56</v>
       </c>
       <c r="K167" s="27" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L167" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M167" s="23" t="s">
         <v>57</v>
@@ -8851,7 +8885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="168" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="27">
         <v>42</v>
       </c>
@@ -8883,34 +8917,34 @@
         <v>488</v>
       </c>
     </row>
-    <row r="169" spans="2:15" s="31" customFormat="1">
+    <row r="169" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" s="27">
         <v>188</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>766</v>
-      </c>
-      <c r="E169" s="85" t="s">
-        <v>808</v>
+        <v>769</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>769</v>
       </c>
       <c r="F169" s="76" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="G169" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H169" s="80"/>
       <c r="I169" s="22" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="J169" s="22" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="K169" s="68" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L169" s="23" t="s">
         <v>242</v>
@@ -8921,27 +8955,27 @@
       </c>
       <c r="O169" s="12"/>
     </row>
-    <row r="170" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="170" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="27">
         <v>173</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
       <c r="F170" s="13" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G170" s="13"/>
       <c r="H170" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="J170" s="35" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K170" s="35"/>
       <c r="L170" s="35"/>
@@ -8951,70 +8985,68 @@
         <v>525</v>
       </c>
     </row>
-    <row r="171" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="171" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="27">
         <v>95</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D171" s="18"/>
       <c r="E171" s="18"/>
       <c r="F171" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G171" s="39"/>
       <c r="H171" s="40"/>
       <c r="I171" s="29"/>
       <c r="J171" s="29"/>
       <c r="K171" s="48" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L171" s="30"/>
       <c r="M171" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N171" s="29"/>
       <c r="O171" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="172" spans="2:15" s="31" customFormat="1" ht="52">
+    <row r="172" spans="2:15" s="31" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="27">
         <v>96</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="D172" s="86" t="s">
-        <v>816</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="D172" s="17"/>
       <c r="E172" s="17" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="F172" s="77" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="G172" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H172" s="20" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="I172" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J172" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="J172" s="18" t="s">
-        <v>109</v>
-      </c>
       <c r="K172" s="48" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L172" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="M172" s="21" t="s">
         <v>687</v>
-      </c>
-      <c r="M172" s="21" t="s">
-        <v>685</v>
       </c>
       <c r="N172" s="18" t="s">
         <v>327</v>
@@ -9023,7 +9055,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="173" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="173" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="27">
         <v>43</v>
       </c>
@@ -9055,34 +9087,34 @@
         <v>488</v>
       </c>
     </row>
-    <row r="174" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="174" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="27">
         <v>59</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
       <c r="F174" s="13" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G174" s="13"/>
       <c r="H174" s="34">
         <v>3118603851</v>
       </c>
       <c r="I174" s="12" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K174" s="27" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L174" s="12"/>
       <c r="M174" s="12" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N174" s="12" t="s">
         <v>14</v>
@@ -9091,70 +9123,70 @@
         <v>530</v>
       </c>
     </row>
-    <row r="175" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="175" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="27">
         <v>56</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
       <c r="F175" s="13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G175" s="13"/>
       <c r="H175" s="34">
         <v>3108545331</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J175" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K175" s="12" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L175" s="12"/>
       <c r="M175" s="35" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N175" s="12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O175" s="12" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="176" spans="2:15" s="31" customFormat="1">
+    <row r="176" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" s="27">
         <v>189</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>766</v>
-      </c>
-      <c r="E176" s="85" t="s">
-        <v>808</v>
+        <v>769</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>769</v>
       </c>
       <c r="F176" s="76" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="G176" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H176" s="80"/>
       <c r="I176" s="22" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="J176" s="22" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="K176" s="68" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L176" s="23" t="s">
         <v>242</v>
@@ -9165,7 +9197,7 @@
       </c>
       <c r="O176" s="12"/>
     </row>
-    <row r="177" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="177" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="27">
         <v>125</v>
       </c>
@@ -9195,7 +9227,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="178" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="178" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="27">
         <v>44</v>
       </c>
@@ -9225,7 +9257,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="179" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="179" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="27">
         <v>45</v>
       </c>
@@ -9257,7 +9289,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="180" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="180" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="27">
         <v>111</v>
       </c>
@@ -9274,13 +9306,13 @@
         <v>3125239211</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="J180" s="18" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K180" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="L180" s="38"/>
       <c r="M180" s="18" t="s">
@@ -9291,37 +9323,37 @@
         <v>292</v>
       </c>
     </row>
-    <row r="181" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="181" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="27">
         <v>147</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D181" s="12"/>
       <c r="E181" s="12"/>
       <c r="F181" s="13" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G181" s="13"/>
       <c r="H181" s="34">
         <v>3133239496</v>
       </c>
       <c r="I181" s="12" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="J181" s="15"/>
       <c r="K181" s="15"/>
       <c r="L181" s="15"/>
       <c r="M181" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N181" s="15"/>
       <c r="O181" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="182" spans="2:15" s="31" customFormat="1" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="182" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="27">
         <v>126</v>
       </c>
@@ -9349,70 +9381,68 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="183" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="27">
         <v>158</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D183" s="12"/>
       <c r="E183" s="12"/>
       <c r="F183" s="13" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G183" s="13"/>
       <c r="H183" s="34">
         <v>3132308360</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="J183" s="15"/>
       <c r="K183" s="15"/>
       <c r="L183" s="15"/>
       <c r="M183" s="12" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N183" s="15"/>
       <c r="O183" s="25" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="184" spans="2:15" s="31" customFormat="1" ht="52">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="27">
         <v>97</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>772</v>
-      </c>
-      <c r="D184" s="83" t="s">
-        <v>811</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="D184" s="18"/>
       <c r="E184" s="18" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="F184" s="73" t="s">
-        <v>817</v>
+        <v>144</v>
       </c>
       <c r="G184" s="27" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="H184" s="20"/>
       <c r="I184" s="18" t="s">
         <v>145</v>
       </c>
       <c r="J184" s="18" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="K184" s="48" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="L184" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="M184" s="65" t="s">
         <v>687</v>
-      </c>
-      <c r="M184" s="65" t="s">
-        <v>685</v>
       </c>
       <c r="N184" s="18" t="s">
         <v>328</v>
@@ -9421,7 +9451,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="185" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="185" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B185" s="27">
         <v>112</v>
       </c>
@@ -9431,7 +9461,9 @@
       <c r="D185" s="18"/>
       <c r="E185" s="18"/>
       <c r="F185" s="28"/>
-      <c r="G185" s="28"/>
+      <c r="G185" s="82" t="s">
+        <v>811</v>
+      </c>
       <c r="H185" s="19">
         <v>3116205099</v>
       </c>
@@ -9442,20 +9474,20 @@
         <v>354</v>
       </c>
       <c r="K185" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L185" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M185" s="21" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="N185" s="29"/>
       <c r="O185" s="66" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="186" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="186" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="27">
         <v>46</v>
       </c>
@@ -9487,7 +9519,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="187" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="187" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B187" s="27">
         <v>113</v>
       </c>
@@ -9502,16 +9534,16 @@
       <c r="G187" s="39"/>
       <c r="H187" s="40"/>
       <c r="I187" s="18" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="J187" s="18" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K187" s="18" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="L187" s="38" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M187" s="21" t="s">
         <v>338</v>
@@ -9521,27 +9553,27 @@
         <v>292</v>
       </c>
     </row>
-    <row r="188" spans="2:15" s="31" customFormat="1" hidden="1">
+    <row r="188" spans="2:15" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="27">
         <v>171</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
       <c r="F188" s="13" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G188" s="13"/>
       <c r="H188" s="14" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I188" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J188" s="35" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K188" s="35"/>
       <c r="L188" s="35"/>
@@ -9555,7 +9587,7 @@
   <autoFilter ref="B8:O188">
     <filterColumn colId="9">
       <filters>
-        <filter val="Acción Inmediata"/>
+        <filter val="Potencial"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9584,7 +9616,7 @@
     <hyperlink ref="F86" r:id="rId16"/>
     <hyperlink ref="F171" r:id="rId17"/>
     <hyperlink ref="C184" r:id="rId18" display="Wfmolano@educacion.ed.co William Molano"/>
-    <hyperlink ref="F184" r:id="rId19" display="Wfmolano@educacion.ed.co "/>
+    <hyperlink ref="F184" r:id="rId19"/>
     <hyperlink ref="F141" r:id="rId20"/>
     <hyperlink ref="F153" r:id="rId21"/>
     <hyperlink ref="F132" r:id="rId22"/>
@@ -9622,7 +9654,7 @@
     <hyperlink ref="F143" r:id="rId54" display="mailto:msaleme@acimedellin.org"/>
     <hyperlink ref="F180" r:id="rId55" display="mailto:alcaldia@labranzagrande-boyaca.gov.co"/>
     <hyperlink ref="F187" r:id="rId56" display="mailto:alcaldesutamarchan@gmail.com"/>
-    <hyperlink ref="F163" r:id="rId57" display="despachosanvicentedechucuri@santander.gov.co"/>
+    <hyperlink ref="F163" r:id="rId57"/>
     <hyperlink ref="F156" r:id="rId58"/>
     <hyperlink ref="F136" r:id="rId59" display="mailto:alcalde@cartagena.gov.co;"/>
     <hyperlink ref="F91" r:id="rId60" display="mailto:isaiaschala@yahoo.com;"/>
@@ -9659,13 +9691,13 @@
     <hyperlink ref="F157" r:id="rId91"/>
     <hyperlink ref="F12" r:id="rId92"/>
     <hyperlink ref="F65" r:id="rId93"/>
-    <hyperlink ref="F35" r:id="rId94" display="camilobarreto2001@yahoo.com"/>
+    <hyperlink ref="F35" r:id="rId94"/>
     <hyperlink ref="F188" r:id="rId95"/>
     <hyperlink ref="F164" r:id="rId96"/>
     <hyperlink ref="F170" r:id="rId97"/>
     <hyperlink ref="F149" r:id="rId98"/>
     <hyperlink ref="F133" r:id="rId99"/>
-    <hyperlink ref="F85" r:id="rId100" display="alcaldia@bahiasolano-choco.gov.co"/>
+    <hyperlink ref="F85" r:id="rId100"/>
     <hyperlink ref="F100" r:id="rId101"/>
     <hyperlink ref="F174" r:id="rId102"/>
     <hyperlink ref="F96" r:id="rId103"/>
@@ -9708,10 +9740,13 @@
     <hyperlink ref="F111" r:id="rId140"/>
     <hyperlink ref="F172" r:id="rId141"/>
     <hyperlink ref="F151" r:id="rId142"/>
+    <hyperlink ref="F13" r:id="rId143"/>
+    <hyperlink ref="F27" r:id="rId144"/>
+    <hyperlink ref="F62" r:id="rId145"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId143"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId146"/>
+  <drawing r:id="rId147"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9728,14 +9763,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
-    <col min="2" max="2" width="81.5" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15" thickBot="1"/>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -9743,7 +9778,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -9751,7 +9786,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>329</v>
       </c>
@@ -9759,7 +9794,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>235</v>
       </c>
@@ -9767,7 +9802,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>292</v>
       </c>
@@ -9775,7 +9810,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>265</v>
       </c>
@@ -9783,7 +9818,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>297</v>
       </c>
@@ -9791,7 +9826,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>525</v>
       </c>
@@ -9799,7 +9834,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>526</v>
       </c>
@@ -9807,7 +9842,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>527</v>
       </c>
@@ -9815,7 +9850,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>528</v>
       </c>
@@ -9823,7 +9858,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>530</v>
       </c>
@@ -9831,7 +9866,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>532</v>
       </c>
@@ -9839,7 +9874,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>534</v>
       </c>
@@ -9847,10 +9882,10 @@
         <v>535</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1"/>
-    <row r="18" ht="15" customHeight="1"/>
-    <row r="19" ht="15" customHeight="1"/>
-    <row r="20" ht="15" customHeight="1"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
